--- a/biology/Histoire de la zoologie et de la botanique/Chantal_Conand/Chantal_Conand.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Chantal_Conand/Chantal_Conand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chantal Conand, née le 10 avril 1943, est une biologiste marine de nationalité française, spécialiste des échinodermes de l'Indo-pacifique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a obtenu un doctorat en océanographie biologique à l'université Aix-Marseille II en 1974, puis soutenu en 1988 à l'université de Bretagne occidentale à Brest une thèse d'État intitulée « Les Holothuries aspidochirotes du lagon de Nouvelle-Calédonie »[1], qui a été primée au Concours des thèses du Pacifique et partiellement traduite en anglais. Elle a enseigné dans les universités de Marseille et de Dakar et occupé un poste à l'Institut de recherche pour le développement à Nouméa de 1978 à 1984 avant de rejoindre Brest. Elle a rejoint en janvier 1993 le laboratoire d'écologie marine (ECOMAR) de l'université de La Réunion, dont elle a ensuite pris la tête[2], participant notamment au développement des coopérations régionales[3]. Elle a été membre du conseil scientifique du Western Indian Ocean Marine Sciences Association de 2001 à 2004[3]. Aujourd'hui professeure émérite de l'université de la Réunion[4], elle est également attachée honoraire du Muséum national d'histoire naturelle[5].
-Spécialiste des échinodermes de l'Indo-pacifique, elle a travaillé sur les holothuries[6] (« concombres de mer »), mais aussi sur les autres échinodermes de l'océan Indien, comme l'étoile dévoreuse de corail Acanthaster planci.
-Elle a également participé à la description de plusieurs espèces, comme Bohadschia atra Massin, Rasolofonirina, Conand &amp; Samyn, 1999[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a obtenu un doctorat en océanographie biologique à l'université Aix-Marseille II en 1974, puis soutenu en 1988 à l'université de Bretagne occidentale à Brest une thèse d'État intitulée « Les Holothuries aspidochirotes du lagon de Nouvelle-Calédonie », qui a été primée au Concours des thèses du Pacifique et partiellement traduite en anglais. Elle a enseigné dans les universités de Marseille et de Dakar et occupé un poste à l'Institut de recherche pour le développement à Nouméa de 1978 à 1984 avant de rejoindre Brest. Elle a rejoint en janvier 1993 le laboratoire d'écologie marine (ECOMAR) de l'université de La Réunion, dont elle a ensuite pris la tête, participant notamment au développement des coopérations régionales. Elle a été membre du conseil scientifique du Western Indian Ocean Marine Sciences Association de 2001 à 2004. Aujourd'hui professeure émérite de l'université de la Réunion, elle est également attachée honoraire du Muséum national d'histoire naturelle.
+Spécialiste des échinodermes de l'Indo-pacifique, elle a travaillé sur les holothuries (« concombres de mer »), mais aussi sur les autres échinodermes de l'océan Indien, comme l'étoile dévoreuse de corail Acanthaster planci.
+Elle a également participé à la description de plusieurs espèces, comme Bohadschia atra Massin, Rasolofonirina, Conand &amp; Samyn, 1999. 
 </t>
         </is>
       </c>
@@ -544,20 +558,91 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ses publications incluent une trentaine d'ouvrages ou chapitres d'ouvrages et plus de 100 articles dans des revues scientifiques à comité de lecture[5]. La liste qui suit, très incomplète, n'est donnée qu'à titre indicatif.
-Ouvrages
-Organisation des Nations Unies pour l'alimentation et l'agriculture et Chantal Conand, Les ressources halieutiques des pays insulaires du Pacifique. Deuxième partie, Les holothuries, Rome, FAO, 1986 (ISBN 92-5-102508-8, BNF 35579596, lire en ligne)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses publications incluent une trentaine d'ouvrages ou chapitres d'ouvrages et plus de 100 articles dans des revues scientifiques à comité de lecture. La liste qui suit, très incomplète, n'est donnée qu'à titre indicatif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chantal_Conand</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Conand</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Organisation des Nations Unies pour l'alimentation et l'agriculture et Chantal Conand, Les ressources halieutiques des pays insulaires du Pacifique. Deuxième partie, Les holothuries, Rome, FAO, 1986 (ISBN 92-5-102508-8, BNF 35579596, lire en ligne)
 Chantal Conand, Les Holothuries aspidochirotes du lagon de Nouvelle-Calédonie [Microforme] : biologie, écologie et exploitation, Grenoble 2, ANRT, 1988 (BNF 37612973)
 Chantal Conand, Les Holothuries aspidochirotes du lagon de Nouvelle-Calédonie [Microforme] : biologie, écologie et exploitation, Bondy, Ed. de l'ORSTOM, 1989, 393 p. (ISSN 0767-2888, BNF 35013266)
 (en) Alessandro Lovatelli et Chantal Conand, Advances in Sea Cucumber Aquaculture and Management, Food &amp; Agriculture Org., 2004, 425 pages (lire en ligne)
 (en) Chantal Conand et Nyawira Muthiga, Commercial Sea Cucumbers: A Review for the Western Indian Ocean, WIOMSA Book Series, 2007, 66 p.
 (en) Steven W. Purcell, Yves Samyn et Chantal Conand, Commercilly important sea cucumbers of the world, Rome, FAO Species Catalogue for Fishery Purposes No. 6, 2012, 233 p. (ISBN 978-92-5-106719-2).
 Chantal Conand, Sonia Ribes-Beaudemoulin, Florence Trentin, Thierry Mulochau et Émilie Boissin, Oursins, étoiles de mer &amp; autres échinodermes : Biodiversité de La Réunion, La Réunion, Les éditions du Cyclone, 2016, 168 p. (ISBN 979-10-94397-04-6).
-(en) Steven W. Purcell, Alessandro Lovatelli, Mercedes González-Wangüemert, Francisco A. Solís-Marín, Yves Samyn et Chantal Conand, Commercially important sea cucumbers of the world, Rome, FAO Species Catalogue for Fishery Purposes No. 6, 2023, 256 p. (ISBN 978-92-5-137793-2, DOI 10.4060/cc5230en).
-Articles
-Articles grand public
+(en) Steven W. Purcell, Alessandro Lovatelli, Mercedes González-Wangüemert, Francisco A. Solís-Marín, Yves Samyn et Chantal Conand, Commercially important sea cucumbers of the world, Rome, FAO Species Catalogue for Fishery Purposes No. 6, 2023, 256 p. (ISBN 978-92-5-137793-2, DOI 10.4060/cc5230en).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chantal_Conand</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chantal_Conand</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Articles grand public
 Chantal Conand, M. Larue, J-P. Quod, F. Conand et J. Turquet, « Le blanchissement des coraux dans l'Océan indien : l'exemple de La Réunion », The Journal of Nature, vol. 14, no 1,‎ 2002, p. 44-50 (lire en ligne)
 Chantal Conand, Pascale Cuet, Odile Naïm et Dominique Mioche, « Des coraux sous surveillance », Pour la Science, no 298,‎ août 2002 (lire en ligne)
 Chantal Conand, « Acanthaster Acanthaster planci », Bull. Nat., Hist. &amp; Géo., Mayotte, no 5,‎ 2001, p. 26-29.
@@ -571,33 +656,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chantal_Conand</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chantal_Conand</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un genre et une espèce d'holothuries lui sont dédiés, Chantalia conandae[8], ainsi que deux espèces d'étoiles de mer : Aquilonastra conandae[9] et Aquilonastra chantalae[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un genre et une espèce d'holothuries lui sont dédiés, Chantalia conandae, ainsi que deux espèces d'étoiles de mer : Aquilonastra conandae et Aquilonastra chantalae.
 </t>
         </is>
       </c>
